--- a/Task_3/processed/excels/Mar 2017-13-14 (1).xlsx
+++ b/Task_3/processed/excels/Mar 2017-13-14 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_3\processed\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E117E25A-E72D-495E-BD81-B455389DC938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F83F4F-5BFF-4047-9576-406D43BAE5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="213">
   <si>
     <t>STATION</t>
   </si>
@@ -1641,40 +1641,40 @@
     <t>HYDRO</t>
   </si>
   <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Thermal - Coal Lignite</t>
-  </si>
-  <si>
-    <t>Thermal - Gas Naptha Diesel</t>
-  </si>
-  <si>
-    <t>Wind - Solar</t>
-  </si>
-  <si>
-    <t>IPP  - Lignite Thermal</t>
-  </si>
-  <si>
-    <t>IPP  - Gas Naptha Diesel</t>
-  </si>
-  <si>
-    <t>IPP  - Wind Solar Others</t>
-  </si>
-  <si>
-    <t>Thermal - Coal</t>
-  </si>
-  <si>
     <t>Central Sector</t>
   </si>
   <si>
-    <t>Thermal - Lignite</t>
-  </si>
-  <si>
     <t>Nuclear</t>
   </si>
   <si>
     <t>Solar</t>
+  </si>
+  <si>
+    <t>Coal Lignite</t>
+  </si>
+  <si>
+    <t>Naptha</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Co-generation</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Private</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2267,56 +2267,80 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2357,75 +2381,6 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2450,6 +2405,48 @@
     <xf numFmtId="2" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2459,47 +2456,47 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2839,1315 +2836,1346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="54.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="6" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="87" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:6" s="74" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="139" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="139" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="79">
+      <c r="B2" s="141">
         <v>58.95</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="141">
         <v>0</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="141">
         <v>1.02</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="141">
+        <v>2</v>
+      </c>
+      <c r="C3" s="141">
+        <v>0.31</v>
+      </c>
+      <c r="D3" s="141">
+        <v>2.52</v>
+      </c>
+      <c r="E3" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="141">
+        <v>150</v>
+      </c>
+      <c r="C4" s="141">
+        <v>12.56</v>
+      </c>
+      <c r="D4" s="141">
+        <v>149.07</v>
+      </c>
+      <c r="E4" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="141">
+        <v>36</v>
+      </c>
+      <c r="C5" s="141">
+        <v>3.59</v>
+      </c>
+      <c r="D5" s="141">
+        <v>41.2</v>
+      </c>
+      <c r="E5" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="141">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="141">
+        <v>0</v>
+      </c>
+      <c r="D6" s="141">
+        <v>82.83</v>
+      </c>
+      <c r="E6" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="141">
+        <v>60</v>
+      </c>
+      <c r="C7" s="141">
+        <v>10.56</v>
+      </c>
+      <c r="D7" s="141">
+        <v>97.19</v>
+      </c>
+      <c r="E7" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="141">
+        <v>175</v>
+      </c>
+      <c r="C8" s="141">
+        <v>27.32</v>
+      </c>
+      <c r="D8" s="141">
+        <v>172.85</v>
+      </c>
+      <c r="E8" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="141">
+        <v>180</v>
+      </c>
+      <c r="C9" s="141">
+        <v>13.45</v>
+      </c>
+      <c r="D9" s="141">
+        <v>173.64</v>
+      </c>
+      <c r="E9" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="141">
+        <v>100</v>
+      </c>
+      <c r="C10" s="141">
+        <v>1.05</v>
+      </c>
+      <c r="D10" s="141">
+        <v>225.24</v>
+      </c>
+      <c r="E10" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="141">
+        <v>40</v>
+      </c>
+      <c r="C11" s="141">
+        <v>6.83</v>
+      </c>
+      <c r="D11" s="141">
+        <v>124.64</v>
+      </c>
+      <c r="E11" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="141">
+        <v>35</v>
+      </c>
+      <c r="C12" s="141">
+        <v>3.76</v>
+      </c>
+      <c r="D12" s="141">
+        <v>38.79</v>
+      </c>
+      <c r="E12" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="141">
+        <v>400</v>
+      </c>
+      <c r="C13" s="141">
+        <v>33.08</v>
+      </c>
+      <c r="D13" s="141">
+        <v>91.47</v>
+      </c>
+      <c r="E13" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="141">
+        <v>60</v>
+      </c>
+      <c r="C14" s="141">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D14" s="141">
+        <v>52.78</v>
+      </c>
+      <c r="E14" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="141">
+        <v>2</v>
+      </c>
+      <c r="C15" s="141">
+        <v>0</v>
+      </c>
+      <c r="D15" s="141">
+        <v>195.69</v>
+      </c>
+      <c r="E15" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="141">
+        <v>50</v>
+      </c>
+      <c r="C16" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="141">
+        <v>41.75</v>
+      </c>
+      <c r="E16" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="141">
+        <v>200</v>
+      </c>
+      <c r="C17" s="141">
+        <v>0</v>
+      </c>
+      <c r="D17" s="141">
+        <v>0.62</v>
+      </c>
+      <c r="E17" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="141">
+        <v>120</v>
+      </c>
+      <c r="C18" s="141">
+        <v>0</v>
+      </c>
+      <c r="D18" s="141">
+        <v>154.18</v>
+      </c>
+      <c r="E18" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="141">
+        <v>8</v>
+      </c>
+      <c r="C19" s="141">
+        <v>0.49</v>
+      </c>
+      <c r="D19" s="141">
+        <v>24.7</v>
+      </c>
+      <c r="E19" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="141">
+        <v>140</v>
+      </c>
+      <c r="C20" s="141">
+        <v>0</v>
+      </c>
+      <c r="D20" s="141">
+        <v>19.12</v>
+      </c>
+      <c r="E20" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="141">
+        <v>6</v>
+      </c>
+      <c r="C21" s="141">
+        <v>0</v>
+      </c>
+      <c r="D21" s="141">
+        <v>6.52</v>
+      </c>
+      <c r="E21" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="141">
+        <v>32</v>
+      </c>
+      <c r="C22" s="141">
+        <v>2.94</v>
+      </c>
+      <c r="D22" s="141">
+        <v>110.31</v>
+      </c>
+      <c r="E22" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="141">
+        <v>20</v>
+      </c>
+      <c r="C23" s="141">
+        <v>0.37</v>
+      </c>
+      <c r="D23" s="141">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E23" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="141">
+        <v>30</v>
+      </c>
+      <c r="C24" s="141">
+        <v>0</v>
+      </c>
+      <c r="D24" s="141">
+        <v>51.6</v>
+      </c>
+      <c r="E24" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="141">
+        <v>95</v>
+      </c>
+      <c r="C25" s="141">
+        <v>12.89</v>
+      </c>
+      <c r="D25" s="141">
+        <v>63.71</v>
+      </c>
+      <c r="E25" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="141">
+        <v>100</v>
+      </c>
+      <c r="C26" s="141">
+        <v>3.44</v>
+      </c>
+      <c r="D26" s="141">
+        <v>270.38</v>
+      </c>
+      <c r="E26" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="141">
+        <v>8</v>
+      </c>
+      <c r="C27" s="141">
+        <v>0</v>
+      </c>
+      <c r="D27" s="141">
+        <v>73.73</v>
+      </c>
+      <c r="E27" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="141">
+        <v>7.5</v>
+      </c>
+      <c r="C28" s="141">
+        <v>0</v>
+      </c>
+      <c r="D28" s="141">
+        <v>25.56</v>
+      </c>
+      <c r="E28" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="141">
+        <v>30</v>
+      </c>
+      <c r="C29" s="141">
+        <v>0</v>
+      </c>
+      <c r="D29" s="141">
+        <v>8.64</v>
+      </c>
+      <c r="E29" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="141">
+        <v>15.7</v>
+      </c>
+      <c r="C30" s="141">
+        <v>0</v>
+      </c>
+      <c r="D30" s="141">
+        <v>0.96</v>
+      </c>
+      <c r="E30" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="141">
+        <v>60</v>
+      </c>
+      <c r="C31" s="141">
+        <v>0.17</v>
+      </c>
+      <c r="D31" s="141">
+        <v>2.08</v>
+      </c>
+      <c r="E31" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="141">
+        <v>450</v>
+      </c>
+      <c r="C32" s="141">
+        <v>0</v>
+      </c>
+      <c r="D32" s="141">
+        <v>167.58</v>
+      </c>
+      <c r="E32" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="141">
+        <v>1050</v>
+      </c>
+      <c r="C33" s="141">
+        <v>385.06</v>
+      </c>
+      <c r="D33" s="141">
+        <v>4767.5</v>
+      </c>
+      <c r="E33" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="140" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="141">
+        <v>1440</v>
+      </c>
+      <c r="C34" s="141">
+        <v>948.46</v>
+      </c>
+      <c r="D34" s="141">
+        <v>8234.42</v>
+      </c>
+      <c r="E34" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="141">
+        <v>1830</v>
+      </c>
+      <c r="C35" s="141">
+        <v>1077.06</v>
+      </c>
+      <c r="D35" s="141">
+        <v>8780.6200000000008</v>
+      </c>
+      <c r="E35" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="136" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="141">
+        <v>120</v>
+      </c>
+      <c r="C36" s="141">
+        <v>0.43</v>
+      </c>
+      <c r="D36" s="141">
+        <v>7.12</v>
+      </c>
+      <c r="E36" s="143" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" s="136" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="140" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="141">
+        <v>107.88</v>
+      </c>
+      <c r="C37" s="141">
+        <v>22.98</v>
+      </c>
+      <c r="D37" s="141">
+        <v>286.32</v>
+      </c>
+      <c r="E37" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" s="136" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="141">
+        <v>95</v>
+      </c>
+      <c r="C38" s="141">
+        <v>58.89</v>
+      </c>
+      <c r="D38" s="141">
+        <v>562.41</v>
+      </c>
+      <c r="E38" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="I38" s="136" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="141">
+        <v>92</v>
+      </c>
+      <c r="C39" s="141">
+        <v>44</v>
+      </c>
+      <c r="D39" s="141">
+        <v>260.44</v>
+      </c>
+      <c r="E39" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="I39" s="136" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="141">
+        <v>101</v>
+      </c>
+      <c r="C40" s="141">
+        <v>31.39</v>
+      </c>
+      <c r="D40" s="141">
+        <v>370.13</v>
+      </c>
+      <c r="E40" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="I40" s="73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="141">
+        <v>17.47</v>
+      </c>
+      <c r="C41" s="141">
+        <v>0</v>
+      </c>
+      <c r="D41" s="141">
+        <v>34.56</v>
+      </c>
+      <c r="E41" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="141">
+        <v>600</v>
+      </c>
+      <c r="C42" s="141">
+        <v>367.64</v>
+      </c>
+      <c r="D42" s="141">
+        <v>3137.15</v>
+      </c>
+      <c r="E42" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="143" t="s">
+        <v>212</v>
+      </c>
+      <c r="I42" s="73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="144" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="145">
+        <v>250</v>
+      </c>
+      <c r="C43" s="141">
+        <v>113.19</v>
+      </c>
+      <c r="D43" s="141">
+        <v>821.55</v>
+      </c>
+      <c r="E43" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="143" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" s="73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="141">
+        <v>196</v>
+      </c>
+      <c r="C44" s="141">
+        <v>0</v>
+      </c>
+      <c r="D44" s="141">
+        <v>0</v>
+      </c>
+      <c r="E44" s="143" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="143" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="141">
+        <v>105.66</v>
+      </c>
+      <c r="C45" s="141">
+        <v>0</v>
+      </c>
+      <c r="D45" s="141">
+        <v>0</v>
+      </c>
+      <c r="E45" s="143" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="140" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="141">
+        <v>106</v>
+      </c>
+      <c r="C46" s="141">
+        <v>0</v>
+      </c>
+      <c r="D46" s="141">
+        <v>10.93</v>
+      </c>
+      <c r="E46" s="143" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="140" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="141">
+        <v>330.5</v>
+      </c>
+      <c r="C47" s="141">
+        <v>0</v>
+      </c>
+      <c r="D47" s="141">
+        <v>178.37</v>
+      </c>
+      <c r="E47" s="143" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="141">
+        <v>113.2</v>
+      </c>
+      <c r="C48" s="141">
+        <v>36.35</v>
+      </c>
+      <c r="D48" s="141">
+        <v>427.61</v>
+      </c>
+      <c r="E48" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="141">
+        <v>52.8</v>
+      </c>
+      <c r="C49" s="141">
+        <v>29.71</v>
+      </c>
+      <c r="D49" s="141">
+        <v>398.09</v>
+      </c>
+      <c r="E49" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="140" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="141">
+        <v>7598.69</v>
+      </c>
+      <c r="C50" s="141">
+        <v>245.02</v>
+      </c>
+      <c r="D50" s="141">
+        <v>11689.11</v>
+      </c>
+      <c r="E50" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="140" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="141">
+        <v>1100.4100000000001</v>
+      </c>
+      <c r="C51" s="141">
+        <v>222.26</v>
+      </c>
+      <c r="D51" s="141">
+        <v>1576.22</v>
+      </c>
+      <c r="E51" s="142" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="141">
+        <v>659.4</v>
+      </c>
+      <c r="C52" s="146">
+        <v>793.68799999999999</v>
+      </c>
+      <c r="D52" s="147">
+        <v>6244.51</v>
+      </c>
+      <c r="E52" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="F52" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="141">
+        <v>177.4</v>
+      </c>
+      <c r="C53" s="146"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="142" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="140" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="148">
+        <v>2600</v>
+      </c>
+      <c r="C54" s="141">
+        <v>1843.09</v>
+      </c>
+      <c r="D54" s="141">
+        <v>16672.52</v>
+      </c>
+      <c r="E54" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="142" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="79">
-        <v>2</v>
-      </c>
-      <c r="C3" s="79">
-        <v>0.31</v>
-      </c>
-      <c r="D3" s="79">
-        <v>2.52</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="75" t="s">
+    <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="148">
+        <v>2000</v>
+      </c>
+      <c r="C55" s="141">
+        <v>1386.35</v>
+      </c>
+      <c r="D55" s="141">
+        <v>12785.9</v>
+      </c>
+      <c r="E55" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="142" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="79">
-        <v>150</v>
-      </c>
-      <c r="C4" s="79">
-        <v>12.56</v>
-      </c>
-      <c r="D4" s="79">
-        <v>149.07</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="75" t="s">
+    <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="140" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="148">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="141">
+        <v>625.04999999999995</v>
+      </c>
+      <c r="D56" s="141">
+        <v>6194.2</v>
+      </c>
+      <c r="E56" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" s="142" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="79">
-        <v>36</v>
-      </c>
-      <c r="C5" s="79">
-        <v>3.59</v>
-      </c>
-      <c r="D5" s="79">
-        <v>41.2</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="75" t="s">
+    <row r="57" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="140" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="148">
+        <v>1500</v>
+      </c>
+      <c r="C57" s="141">
+        <v>950.53</v>
+      </c>
+      <c r="D57" s="141">
+        <v>8132.02</v>
+      </c>
+      <c r="E57" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="142" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="79">
-        <v>0.75</v>
-      </c>
-      <c r="C6" s="79">
+    <row r="58" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="148">
+        <v>1000</v>
+      </c>
+      <c r="C58" s="141">
+        <v>563.21</v>
+      </c>
+      <c r="D58" s="141">
+        <v>5618.45</v>
+      </c>
+      <c r="E58" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="140" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="148">
+        <v>1470</v>
+      </c>
+      <c r="C59" s="141">
+        <v>1047.04</v>
+      </c>
+      <c r="D59" s="141">
+        <v>9450.9699999999993</v>
+      </c>
+      <c r="E59" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="148">
+        <v>420</v>
+      </c>
+      <c r="C60" s="141">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="D60" s="141">
+        <v>2960.96</v>
+      </c>
+      <c r="E60" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="140" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="148">
+        <v>500</v>
+      </c>
+      <c r="C61" s="141">
+        <v>76.290000000000006</v>
+      </c>
+      <c r="D61" s="141">
+        <v>1130.51</v>
+      </c>
+      <c r="E61" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="140" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="141">
+        <v>440</v>
+      </c>
+      <c r="C62" s="141">
+        <v>251.3</v>
+      </c>
+      <c r="D62" s="141">
+        <v>2806.25</v>
+      </c>
+      <c r="E62" s="142" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="141">
+        <v>880</v>
+      </c>
+      <c r="C63" s="141">
+        <v>571.66999999999996</v>
+      </c>
+      <c r="D63" s="141">
+        <v>5553.95</v>
+      </c>
+      <c r="E63" s="142" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="141">
+        <v>2000</v>
+      </c>
+      <c r="C64" s="141">
+        <v>12.61</v>
+      </c>
+      <c r="D64" s="141">
+        <v>7238.74</v>
+      </c>
+      <c r="E64" s="142" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" s="142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="141">
+        <v>10</v>
+      </c>
+      <c r="C65" s="141">
         <v>0</v>
       </c>
-      <c r="D6" s="79">
-        <v>82.83</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="75" t="s">
+      <c r="D65" s="141">
+        <v>1.24</v>
+      </c>
+      <c r="E65" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="149" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="79">
-        <v>60</v>
-      </c>
-      <c r="C7" s="79">
-        <v>10.56</v>
-      </c>
-      <c r="D7" s="79">
-        <v>97.19</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="79">
-        <v>175</v>
-      </c>
-      <c r="C8" s="79">
-        <v>27.32</v>
-      </c>
-      <c r="D8" s="79">
-        <v>172.85</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="79">
-        <v>180</v>
-      </c>
-      <c r="C9" s="79">
-        <v>13.45</v>
-      </c>
-      <c r="D9" s="79">
-        <v>173.64</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="79">
-        <v>100</v>
-      </c>
-      <c r="C10" s="79">
-        <v>1.05</v>
-      </c>
-      <c r="D10" s="79">
-        <v>225.24</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="79">
-        <v>40</v>
-      </c>
-      <c r="C11" s="79">
-        <v>6.83</v>
-      </c>
-      <c r="D11" s="79">
-        <v>124.64</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="79">
-        <v>35</v>
-      </c>
-      <c r="C12" s="79">
-        <v>3.76</v>
-      </c>
-      <c r="D12" s="79">
-        <v>38.79</v>
-      </c>
-      <c r="E12" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="79">
-        <v>400</v>
-      </c>
-      <c r="C13" s="79">
-        <v>33.08</v>
-      </c>
-      <c r="D13" s="79">
-        <v>91.47</v>
-      </c>
-      <c r="E13" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="79">
-        <v>60</v>
-      </c>
-      <c r="C14" s="79">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="D14" s="79">
-        <v>52.78</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="79">
-        <v>2</v>
-      </c>
-      <c r="C15" s="79">
-        <v>0</v>
-      </c>
-      <c r="D15" s="79">
-        <v>195.69</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="79">
-        <v>50</v>
-      </c>
-      <c r="C16" s="79">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="79">
-        <v>41.75</v>
-      </c>
-      <c r="E16" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="79">
-        <v>200</v>
-      </c>
-      <c r="C17" s="79">
-        <v>0</v>
-      </c>
-      <c r="D17" s="79">
-        <v>0.62</v>
-      </c>
-      <c r="E17" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="79">
-        <v>120</v>
-      </c>
-      <c r="C18" s="79">
-        <v>0</v>
-      </c>
-      <c r="D18" s="79">
-        <v>154.18</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="79">
-        <v>8</v>
-      </c>
-      <c r="C19" s="79">
-        <v>0.49</v>
-      </c>
-      <c r="D19" s="79">
-        <v>24.7</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="79">
-        <v>140</v>
-      </c>
-      <c r="C20" s="79">
-        <v>0</v>
-      </c>
-      <c r="D20" s="79">
-        <v>19.12</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="79">
-        <v>6</v>
-      </c>
-      <c r="C21" s="79">
-        <v>0</v>
-      </c>
-      <c r="D21" s="79">
-        <v>6.52</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="79">
-        <v>32</v>
-      </c>
-      <c r="C22" s="79">
-        <v>2.94</v>
-      </c>
-      <c r="D22" s="79">
-        <v>110.31</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="79">
-        <v>20</v>
-      </c>
-      <c r="C23" s="79">
-        <v>0.37</v>
-      </c>
-      <c r="D23" s="79">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="79">
-        <v>30</v>
-      </c>
-      <c r="C24" s="79">
-        <v>0</v>
-      </c>
-      <c r="D24" s="79">
-        <v>51.6</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="79">
-        <v>95</v>
-      </c>
-      <c r="C25" s="79">
-        <v>12.89</v>
-      </c>
-      <c r="D25" s="79">
-        <v>63.71</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="79">
-        <v>100</v>
-      </c>
-      <c r="C26" s="79">
-        <v>3.44</v>
-      </c>
-      <c r="D26" s="79">
-        <v>270.38</v>
-      </c>
-      <c r="E26" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="79">
-        <v>8</v>
-      </c>
-      <c r="C27" s="79">
-        <v>0</v>
-      </c>
-      <c r="D27" s="79">
-        <v>73.73</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="79">
-        <v>7.5</v>
-      </c>
-      <c r="C28" s="79">
-        <v>0</v>
-      </c>
-      <c r="D28" s="79">
-        <v>25.56</v>
-      </c>
-      <c r="E28" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="79">
-        <v>30</v>
-      </c>
-      <c r="C29" s="79">
-        <v>0</v>
-      </c>
-      <c r="D29" s="79">
-        <v>8.64</v>
-      </c>
-      <c r="E29" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="79">
-        <v>15.7</v>
-      </c>
-      <c r="C30" s="79">
-        <v>0</v>
-      </c>
-      <c r="D30" s="79">
-        <v>0.96</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="79">
-        <v>60</v>
-      </c>
-      <c r="C31" s="79">
-        <v>0.17</v>
-      </c>
-      <c r="D31" s="79">
-        <v>2.08</v>
-      </c>
-      <c r="E31" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="79">
-        <v>450</v>
-      </c>
-      <c r="C32" s="79">
-        <v>0</v>
-      </c>
-      <c r="D32" s="79">
-        <v>167.58</v>
-      </c>
-      <c r="E32" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="F32" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="79">
-        <v>1050</v>
-      </c>
-      <c r="C33" s="79">
-        <v>385.06</v>
-      </c>
-      <c r="D33" s="79">
-        <v>4767.5</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="79">
-        <v>1440</v>
-      </c>
-      <c r="C34" s="79">
-        <v>948.46</v>
-      </c>
-      <c r="D34" s="79">
-        <v>8234.42</v>
-      </c>
-      <c r="E34" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="79">
-        <v>1830</v>
-      </c>
-      <c r="C35" s="79">
-        <v>1077.06</v>
-      </c>
-      <c r="D35" s="79">
-        <v>8780.6200000000008</v>
-      </c>
-      <c r="E35" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="F35" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="79">
-        <v>120</v>
-      </c>
-      <c r="C36" s="79">
-        <v>0.43</v>
-      </c>
-      <c r="D36" s="79">
-        <v>7.12</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="79">
-        <v>107.88</v>
-      </c>
-      <c r="C37" s="79">
-        <v>22.98</v>
-      </c>
-      <c r="D37" s="79">
-        <v>286.32</v>
-      </c>
-      <c r="E37" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="79">
-        <v>95</v>
-      </c>
-      <c r="C38" s="79">
-        <v>58.89</v>
-      </c>
-      <c r="D38" s="79">
-        <v>562.41</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="79">
-        <v>92</v>
-      </c>
-      <c r="C39" s="79">
-        <v>44</v>
-      </c>
-      <c r="D39" s="79">
-        <v>260.44</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="79">
-        <v>101</v>
-      </c>
-      <c r="C40" s="79">
-        <v>31.39</v>
-      </c>
-      <c r="D40" s="79">
-        <v>370.13</v>
-      </c>
-      <c r="E40" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="79">
-        <v>17.47</v>
-      </c>
-      <c r="C41" s="79">
-        <v>0</v>
-      </c>
-      <c r="D41" s="79">
-        <v>34.56</v>
-      </c>
-      <c r="E41" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="F41" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="79">
-        <v>600</v>
-      </c>
-      <c r="C42" s="79">
-        <v>367.64</v>
-      </c>
-      <c r="D42" s="79">
-        <v>3137.15</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="F42" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="81">
-        <v>250</v>
-      </c>
-      <c r="C43" s="79">
-        <v>113.19</v>
-      </c>
-      <c r="D43" s="82">
-        <v>821.55</v>
-      </c>
-      <c r="E43" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="F43" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="79">
-        <v>196</v>
-      </c>
-      <c r="C44" s="79">
-        <v>0</v>
-      </c>
-      <c r="D44" s="79">
-        <v>0</v>
-      </c>
-      <c r="E44" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="F44" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="79">
-        <v>105.66</v>
-      </c>
-      <c r="C45" s="79">
-        <v>0</v>
-      </c>
-      <c r="D45" s="79">
-        <v>0</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="79">
-        <v>106</v>
-      </c>
-      <c r="C46" s="79">
-        <v>0</v>
-      </c>
-      <c r="D46" s="79">
-        <v>10.93</v>
-      </c>
-      <c r="E46" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="79">
-        <v>330.5</v>
-      </c>
-      <c r="C47" s="79">
-        <v>0</v>
-      </c>
-      <c r="D47" s="79">
-        <v>178.37</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="79">
-        <v>113.2</v>
-      </c>
-      <c r="C48" s="79">
-        <v>36.35</v>
-      </c>
-      <c r="D48" s="79">
-        <v>427.61</v>
-      </c>
-      <c r="E48" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="F48" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="79">
-        <v>52.8</v>
-      </c>
-      <c r="C49" s="79">
-        <v>29.71</v>
-      </c>
-      <c r="D49" s="79">
-        <v>398.09</v>
-      </c>
-      <c r="E49" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="79">
-        <v>7598.69</v>
-      </c>
-      <c r="C50" s="79">
-        <v>245.02</v>
-      </c>
-      <c r="D50" s="79">
-        <v>11689.11</v>
-      </c>
-      <c r="E50" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="79">
-        <v>1100.4100000000001</v>
-      </c>
-      <c r="C51" s="79">
-        <v>222.26</v>
-      </c>
-      <c r="D51" s="79">
-        <v>1576.22</v>
-      </c>
-      <c r="E51" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="79">
-        <v>659.4</v>
-      </c>
-      <c r="C52" s="88">
-        <v>793.68799999999999</v>
-      </c>
-      <c r="D52" s="89">
-        <v>6244.51</v>
-      </c>
-      <c r="E52" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="79">
-        <v>177.4</v>
-      </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="83">
-        <v>2600</v>
-      </c>
-      <c r="C54" s="79">
-        <v>1843.09</v>
-      </c>
-      <c r="D54" s="84">
-        <v>16672.52</v>
-      </c>
-      <c r="E54" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="83">
-        <v>2000</v>
-      </c>
-      <c r="C55" s="79">
-        <v>1386.35</v>
-      </c>
-      <c r="D55" s="84">
-        <v>12785.9</v>
-      </c>
-      <c r="E55" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="83">
-        <v>1000</v>
-      </c>
-      <c r="C56" s="79">
-        <v>625.04999999999995</v>
-      </c>
-      <c r="D56" s="82">
-        <v>6194.2</v>
-      </c>
-      <c r="E56" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="83">
-        <v>1500</v>
-      </c>
-      <c r="C57" s="79">
-        <v>950.53</v>
-      </c>
-      <c r="D57" s="82">
-        <v>8132.02</v>
-      </c>
-      <c r="E57" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F57" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="83">
-        <v>1000</v>
-      </c>
-      <c r="C58" s="79">
-        <v>563.21</v>
-      </c>
-      <c r="D58" s="82">
-        <v>5618.45</v>
-      </c>
-      <c r="E58" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F58" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="83">
-        <v>1470</v>
-      </c>
-      <c r="C59" s="79">
-        <v>1047.04</v>
-      </c>
-      <c r="D59" s="82">
-        <v>9450.9699999999993</v>
-      </c>
-      <c r="E59" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="F59" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="83">
-        <v>420</v>
-      </c>
-      <c r="C60" s="79">
-        <v>313.10000000000002</v>
-      </c>
-      <c r="D60" s="82">
-        <v>2960.96</v>
-      </c>
-      <c r="E60" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="F60" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="83">
-        <v>500</v>
-      </c>
-      <c r="C61" s="79">
-        <v>76.290000000000006</v>
-      </c>
-      <c r="D61" s="82">
-        <v>1130.51</v>
-      </c>
-      <c r="E61" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="F61" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="79">
-        <v>440</v>
-      </c>
-      <c r="C62" s="79">
-        <v>251.3</v>
-      </c>
-      <c r="D62" s="82">
-        <v>2806.25</v>
-      </c>
-      <c r="E62" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="F62" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="79">
-        <v>880</v>
-      </c>
-      <c r="C63" s="79">
-        <v>571.66999999999996</v>
-      </c>
-      <c r="D63" s="82">
-        <v>5553.95</v>
-      </c>
-      <c r="E63" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="F63" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="79">
-        <v>2000</v>
-      </c>
-      <c r="C64" s="79">
-        <v>12.61</v>
-      </c>
-      <c r="D64" s="82">
-        <v>7238.74</v>
-      </c>
-      <c r="E64" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="F64" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="79">
-        <v>10</v>
-      </c>
-      <c r="C65" s="79">
-        <v>0</v>
-      </c>
-      <c r="D65" s="79">
-        <v>1.24</v>
-      </c>
-      <c r="E65" s="85" t="s">
-        <v>212</v>
-      </c>
-      <c r="F65" s="85" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4242,28 +4270,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="98" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="99"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
@@ -4598,11 +4626,11 @@
       <c r="B17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="108">
         <v>2221.9</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="13">
         <v>137.09</v>
       </c>
@@ -4611,15 +4639,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
@@ -4718,11 +4746,11 @@
       <c r="B23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="106">
+      <c r="C23" s="85">
         <v>4770</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="22">
         <v>2410.58</v>
       </c>
@@ -4731,15 +4759,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
@@ -4861,11 +4889,11 @@
       <c r="B30" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="85">
         <v>515.88</v>
       </c>
-      <c r="D30" s="107"/>
-      <c r="E30" s="108"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="22">
         <v>157.69</v>
       </c>
@@ -4874,15 +4902,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="110"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="97"/>
     </row>
     <row r="32" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
@@ -4912,11 +4940,11 @@
       <c r="B33" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="106">
+      <c r="C33" s="85">
         <v>17.47</v>
       </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
       <c r="F33" s="22">
         <v>0</v>
       </c>
@@ -4925,15 +4953,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
@@ -4984,22 +5012,22 @@
     <row r="37" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="124"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
     </row>
     <row r="38" spans="1:7" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="125" t="s">
+      <c r="A38" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32">
@@ -5140,15 +5168,15 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="125" t="s">
+      <c r="A45" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
     </row>
     <row r="46" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32">
@@ -5212,10 +5240,10 @@
       <c r="E48" s="36">
         <v>659.4</v>
       </c>
-      <c r="F48" s="111">
+      <c r="F48" s="75">
         <v>793.68799999999999</v>
       </c>
-      <c r="G48" s="113">
+      <c r="G48" s="77">
         <v>6244.51</v>
       </c>
     </row>
@@ -5235,19 +5263,19 @@
       <c r="E49" s="36">
         <v>177.4</v>
       </c>
-      <c r="F49" s="112"/>
-      <c r="G49" s="114"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="78"/>
     </row>
     <row r="50" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="115">
+      <c r="C50" s="79">
         <v>11290.06</v>
       </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="42">
         <v>1807.85</v>
       </c>
@@ -5260,11 +5288,11 @@
       <c r="B51" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="118">
+      <c r="C51" s="82">
         <v>18815.310000000001</v>
       </c>
-      <c r="D51" s="119"/>
-      <c r="E51" s="120"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="84"/>
       <c r="F51" s="42">
         <v>4513.21</v>
       </c>
@@ -5274,6 +5302,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="C50:E50"/>
@@ -5283,16 +5321,6 @@
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5335,24 +5363,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="99"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
@@ -5361,13 +5389,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44">
@@ -5467,15 +5495,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46">
@@ -5643,11 +5671,11 @@
       <c r="B9" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9" s="116">
         <v>6378</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="54">
         <v>1264.08</v>
       </c>
@@ -5660,11 +5688,11 @@
       <c r="B10" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="131">
+      <c r="C10" s="116">
         <v>6378</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="54">
         <v>1264.08</v>
       </c>
@@ -5723,28 +5751,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="98" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="99"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
@@ -5753,15 +5781,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55">
@@ -5879,15 +5907,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
     </row>
     <row r="10" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
@@ -5963,11 +5991,11 @@
       <c r="B13" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="145">
+      <c r="C13" s="127">
         <v>10490</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
       <c r="F13" s="65">
         <v>6804.65</v>
       </c>
@@ -5976,15 +6004,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
     </row>
     <row r="15" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
@@ -6060,11 +6088,11 @@
       <c r="B18" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="85">
         <v>3320</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="22">
         <v>835.57</v>
       </c>
@@ -6073,15 +6101,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="148" t="s">
+      <c r="A19" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="150"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="132"/>
     </row>
     <row r="20" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
@@ -6111,11 +6139,11 @@
       <c r="B21" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="115">
+      <c r="C21" s="79">
         <v>10</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="42">
         <v>0</v>
       </c>
@@ -6128,11 +6156,11 @@
       <c r="B22" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="137">
+      <c r="C22" s="119">
         <v>13820</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="22">
         <v>7640.22</v>
       </c>
@@ -6145,11 +6173,11 @@
       <c r="B23" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="140">
+      <c r="C23" s="122">
         <v>78357.14</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="71">
         <v>25250.85</v>
       </c>
@@ -6159,6 +6187,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
@@ -6167,11 +6200,6 @@
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task_3/processed/excels/Mar 2017-13-14 (1).xlsx
+++ b/Task_3/processed/excels/Mar 2017-13-14 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_3\processed\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F83F4F-5BFF-4047-9576-406D43BAE5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F011A90-A44E-4F6E-8175-78DE1B8A8B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2273,6 +2273,111 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
@@ -2303,15 +2408,6 @@
     <xf numFmtId="2" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2327,60 +2423,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2405,6 +2447,15 @@
     <xf numFmtId="2" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -2446,57 +2497,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2838,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2853,817 +2853,817 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="74" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="78" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="141">
+      <c r="B2" s="80">
         <v>58.95</v>
       </c>
-      <c r="C2" s="141">
+      <c r="C2" s="80">
         <v>0</v>
       </c>
-      <c r="D2" s="141">
+      <c r="D2" s="80">
         <v>1.02</v>
       </c>
-      <c r="E2" s="140" t="s">
+      <c r="E2" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="141">
+      <c r="B3" s="80">
         <v>2</v>
       </c>
-      <c r="C3" s="141">
+      <c r="C3" s="80">
         <v>0.31</v>
       </c>
-      <c r="D3" s="141">
+      <c r="D3" s="80">
         <v>2.52</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="141">
+      <c r="B4" s="80">
         <v>150</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="80">
         <v>12.56</v>
       </c>
-      <c r="D4" s="141">
+      <c r="D4" s="80">
         <v>149.07</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="80">
         <v>36</v>
       </c>
-      <c r="C5" s="141">
+      <c r="C5" s="80">
         <v>3.59</v>
       </c>
-      <c r="D5" s="141">
+      <c r="D5" s="80">
         <v>41.2</v>
       </c>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="141">
+      <c r="B6" s="80">
         <v>0.75</v>
       </c>
-      <c r="C6" s="141">
+      <c r="C6" s="80">
         <v>0</v>
       </c>
-      <c r="D6" s="141">
+      <c r="D6" s="80">
         <v>82.83</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="141">
+      <c r="B7" s="80">
         <v>60</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="80">
         <v>10.56</v>
       </c>
-      <c r="D7" s="141">
+      <c r="D7" s="80">
         <v>97.19</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="142" t="s">
+      <c r="F7" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="141">
+      <c r="B8" s="80">
         <v>175</v>
       </c>
-      <c r="C8" s="141">
+      <c r="C8" s="80">
         <v>27.32</v>
       </c>
-      <c r="D8" s="141">
+      <c r="D8" s="80">
         <v>172.85</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="142" t="s">
+      <c r="F8" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="141">
+      <c r="B9" s="80">
         <v>180</v>
       </c>
-      <c r="C9" s="141">
+      <c r="C9" s="80">
         <v>13.45</v>
       </c>
-      <c r="D9" s="141">
+      <c r="D9" s="80">
         <v>173.64</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="141">
+      <c r="B10" s="80">
         <v>100</v>
       </c>
-      <c r="C10" s="141">
+      <c r="C10" s="80">
         <v>1.05</v>
       </c>
-      <c r="D10" s="141">
+      <c r="D10" s="80">
         <v>225.24</v>
       </c>
-      <c r="E10" s="140" t="s">
+      <c r="E10" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="141">
+      <c r="B11" s="80">
         <v>40</v>
       </c>
-      <c r="C11" s="141">
+      <c r="C11" s="80">
         <v>6.83</v>
       </c>
-      <c r="D11" s="141">
+      <c r="D11" s="80">
         <v>124.64</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="142" t="s">
+      <c r="F11" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="141">
+      <c r="B12" s="80">
         <v>35</v>
       </c>
-      <c r="C12" s="141">
+      <c r="C12" s="80">
         <v>3.76</v>
       </c>
-      <c r="D12" s="141">
+      <c r="D12" s="80">
         <v>38.79</v>
       </c>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="142" t="s">
+      <c r="F12" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="141">
+      <c r="B13" s="80">
         <v>400</v>
       </c>
-      <c r="C13" s="141">
+      <c r="C13" s="80">
         <v>33.08</v>
       </c>
-      <c r="D13" s="141">
+      <c r="D13" s="80">
         <v>91.47</v>
       </c>
-      <c r="E13" s="140" t="s">
+      <c r="E13" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="142" t="s">
+      <c r="F13" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="141">
+      <c r="B14" s="80">
         <v>60</v>
       </c>
-      <c r="C14" s="141">
+      <c r="C14" s="80">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D14" s="141">
+      <c r="D14" s="80">
         <v>52.78</v>
       </c>
-      <c r="E14" s="140" t="s">
+      <c r="E14" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F14" s="142" t="s">
+      <c r="F14" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="141">
+      <c r="B15" s="80">
         <v>2</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="80">
         <v>0</v>
       </c>
-      <c r="D15" s="141">
+      <c r="D15" s="80">
         <v>195.69</v>
       </c>
-      <c r="E15" s="140" t="s">
+      <c r="E15" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="141">
+      <c r="B16" s="80">
         <v>50</v>
       </c>
-      <c r="C16" s="141">
+      <c r="C16" s="80">
         <v>0.5</v>
       </c>
-      <c r="D16" s="141">
+      <c r="D16" s="80">
         <v>41.75</v>
       </c>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="142" t="s">
+      <c r="F16" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="141">
+      <c r="B17" s="80">
         <v>200</v>
       </c>
-      <c r="C17" s="141">
+      <c r="C17" s="80">
         <v>0</v>
       </c>
-      <c r="D17" s="141">
+      <c r="D17" s="80">
         <v>0.62</v>
       </c>
-      <c r="E17" s="140" t="s">
+      <c r="E17" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="142" t="s">
+      <c r="F17" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="141">
+      <c r="B18" s="80">
         <v>120</v>
       </c>
-      <c r="C18" s="141">
+      <c r="C18" s="80">
         <v>0</v>
       </c>
-      <c r="D18" s="141">
+      <c r="D18" s="80">
         <v>154.18</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="142" t="s">
+      <c r="F18" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="141">
+      <c r="B19" s="80">
         <v>8</v>
       </c>
-      <c r="C19" s="141">
+      <c r="C19" s="80">
         <v>0.49</v>
       </c>
-      <c r="D19" s="141">
+      <c r="D19" s="80">
         <v>24.7</v>
       </c>
-      <c r="E19" s="140" t="s">
+      <c r="E19" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="141">
+      <c r="B20" s="80">
         <v>140</v>
       </c>
-      <c r="C20" s="141">
+      <c r="C20" s="80">
         <v>0</v>
       </c>
-      <c r="D20" s="141">
+      <c r="D20" s="80">
         <v>19.12</v>
       </c>
-      <c r="E20" s="140" t="s">
+      <c r="E20" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="141">
+      <c r="B21" s="80">
         <v>6</v>
       </c>
-      <c r="C21" s="141">
+      <c r="C21" s="80">
         <v>0</v>
       </c>
-      <c r="D21" s="141">
+      <c r="D21" s="80">
         <v>6.52</v>
       </c>
-      <c r="E21" s="140" t="s">
+      <c r="E21" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F21" s="142" t="s">
+      <c r="F21" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="141">
+      <c r="B22" s="80">
         <v>32</v>
       </c>
-      <c r="C22" s="141">
+      <c r="C22" s="80">
         <v>2.94</v>
       </c>
-      <c r="D22" s="141">
+      <c r="D22" s="80">
         <v>110.31</v>
       </c>
-      <c r="E22" s="140" t="s">
+      <c r="E22" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="140" t="s">
+      <c r="A23" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="141">
+      <c r="B23" s="80">
         <v>20</v>
       </c>
-      <c r="C23" s="141">
+      <c r="C23" s="80">
         <v>0.37</v>
       </c>
-      <c r="D23" s="141">
+      <c r="D23" s="80">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E23" s="140" t="s">
+      <c r="E23" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F23" s="142" t="s">
+      <c r="F23" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="141">
+      <c r="B24" s="80">
         <v>30</v>
       </c>
-      <c r="C24" s="141">
+      <c r="C24" s="80">
         <v>0</v>
       </c>
-      <c r="D24" s="141">
+      <c r="D24" s="80">
         <v>51.6</v>
       </c>
-      <c r="E24" s="140" t="s">
+      <c r="E24" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F24" s="142" t="s">
+      <c r="F24" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="141">
+      <c r="B25" s="80">
         <v>95</v>
       </c>
-      <c r="C25" s="141">
+      <c r="C25" s="80">
         <v>12.89</v>
       </c>
-      <c r="D25" s="141">
+      <c r="D25" s="80">
         <v>63.71</v>
       </c>
-      <c r="E25" s="140" t="s">
+      <c r="E25" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="142" t="s">
+      <c r="F25" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="141">
+      <c r="B26" s="80">
         <v>100</v>
       </c>
-      <c r="C26" s="141">
+      <c r="C26" s="80">
         <v>3.44</v>
       </c>
-      <c r="D26" s="141">
+      <c r="D26" s="80">
         <v>270.38</v>
       </c>
-      <c r="E26" s="140" t="s">
+      <c r="E26" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="142" t="s">
+      <c r="F26" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="141">
+      <c r="B27" s="80">
         <v>8</v>
       </c>
-      <c r="C27" s="141">
+      <c r="C27" s="80">
         <v>0</v>
       </c>
-      <c r="D27" s="141">
+      <c r="D27" s="80">
         <v>73.73</v>
       </c>
-      <c r="E27" s="140" t="s">
+      <c r="E27" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="142" t="s">
+      <c r="F27" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="141">
+      <c r="B28" s="80">
         <v>7.5</v>
       </c>
-      <c r="C28" s="141">
+      <c r="C28" s="80">
         <v>0</v>
       </c>
-      <c r="D28" s="141">
+      <c r="D28" s="80">
         <v>25.56</v>
       </c>
-      <c r="E28" s="140" t="s">
+      <c r="E28" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="142" t="s">
+      <c r="F28" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="141">
+      <c r="B29" s="80">
         <v>30</v>
       </c>
-      <c r="C29" s="141">
+      <c r="C29" s="80">
         <v>0</v>
       </c>
-      <c r="D29" s="141">
+      <c r="D29" s="80">
         <v>8.64</v>
       </c>
-      <c r="E29" s="140" t="s">
+      <c r="E29" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="142" t="s">
+      <c r="F29" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="141">
+      <c r="B30" s="80">
         <v>15.7</v>
       </c>
-      <c r="C30" s="141">
+      <c r="C30" s="80">
         <v>0</v>
       </c>
-      <c r="D30" s="141">
+      <c r="D30" s="80">
         <v>0.96</v>
       </c>
-      <c r="E30" s="140" t="s">
+      <c r="E30" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F30" s="142" t="s">
+      <c r="F30" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="141">
+      <c r="B31" s="80">
         <v>60</v>
       </c>
-      <c r="C31" s="141">
+      <c r="C31" s="80">
         <v>0.17</v>
       </c>
-      <c r="D31" s="141">
+      <c r="D31" s="80">
         <v>2.08</v>
       </c>
-      <c r="E31" s="140" t="s">
+      <c r="E31" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="142" t="s">
+      <c r="F31" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="141">
+      <c r="B32" s="80">
         <v>450</v>
       </c>
-      <c r="C32" s="141">
+      <c r="C32" s="80">
         <v>0</v>
       </c>
-      <c r="D32" s="141">
+      <c r="D32" s="80">
         <v>167.58</v>
       </c>
-      <c r="E32" s="143" t="s">
+      <c r="E32" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F32" s="142" t="s">
+      <c r="F32" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="141">
+      <c r="B33" s="80">
         <v>1050</v>
       </c>
-      <c r="C33" s="141">
+      <c r="C33" s="80">
         <v>385.06</v>
       </c>
-      <c r="D33" s="141">
+      <c r="D33" s="80">
         <v>4767.5</v>
       </c>
-      <c r="E33" s="143" t="s">
+      <c r="E33" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F33" s="142" t="s">
+      <c r="F33" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="141">
+      <c r="B34" s="80">
         <v>1440</v>
       </c>
-      <c r="C34" s="141">
+      <c r="C34" s="80">
         <v>948.46</v>
       </c>
-      <c r="D34" s="141">
+      <c r="D34" s="80">
         <v>8234.42</v>
       </c>
-      <c r="E34" s="143" t="s">
+      <c r="E34" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="142" t="s">
+      <c r="F34" s="81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="141">
+      <c r="B35" s="80">
         <v>1830</v>
       </c>
-      <c r="C35" s="141">
+      <c r="C35" s="80">
         <v>1077.06</v>
       </c>
-      <c r="D35" s="141">
+      <c r="D35" s="80">
         <v>8780.6200000000008</v>
       </c>
-      <c r="E35" s="143" t="s">
+      <c r="E35" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="142" t="s">
+      <c r="F35" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="I35" s="136" t="s">
+      <c r="I35" s="75" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="140" t="s">
+      <c r="A36" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="141">
+      <c r="B36" s="80">
         <v>120</v>
       </c>
-      <c r="C36" s="141">
+      <c r="C36" s="80">
         <v>0.43</v>
       </c>
-      <c r="D36" s="141">
+      <c r="D36" s="80">
         <v>7.12</v>
       </c>
-      <c r="E36" s="143" t="s">
+      <c r="E36" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="F36" s="142" t="s">
+      <c r="F36" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="I36" s="136" t="s">
+      <c r="I36" s="75" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="141">
+      <c r="B37" s="80">
         <v>107.88</v>
       </c>
-      <c r="C37" s="141">
+      <c r="C37" s="80">
         <v>22.98</v>
       </c>
-      <c r="D37" s="141">
+      <c r="D37" s="80">
         <v>286.32</v>
       </c>
-      <c r="E37" s="143" t="s">
+      <c r="E37" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="F37" s="142" t="s">
+      <c r="F37" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="I37" s="136" t="s">
+      <c r="I37" s="75" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="141">
+      <c r="B38" s="80">
         <v>95</v>
       </c>
-      <c r="C38" s="141">
+      <c r="C38" s="80">
         <v>58.89</v>
       </c>
-      <c r="D38" s="141">
+      <c r="D38" s="80">
         <v>562.41</v>
       </c>
-      <c r="E38" s="143" t="s">
+      <c r="E38" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="142" t="s">
+      <c r="F38" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="I38" s="136" t="s">
+      <c r="I38" s="75" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="140" t="s">
+      <c r="A39" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="141">
+      <c r="B39" s="80">
         <v>92</v>
       </c>
-      <c r="C39" s="141">
+      <c r="C39" s="80">
         <v>44</v>
       </c>
-      <c r="D39" s="141">
+      <c r="D39" s="80">
         <v>260.44</v>
       </c>
-      <c r="E39" s="143" t="s">
+      <c r="E39" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="F39" s="142" t="s">
+      <c r="F39" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="I39" s="136" t="s">
+      <c r="I39" s="75" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="141">
+      <c r="B40" s="80">
         <v>101</v>
       </c>
-      <c r="C40" s="141">
+      <c r="C40" s="80">
         <v>31.39</v>
       </c>
-      <c r="D40" s="141">
+      <c r="D40" s="80">
         <v>370.13</v>
       </c>
-      <c r="E40" s="143" t="s">
+      <c r="E40" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="142" t="s">
+      <c r="F40" s="81" t="s">
         <v>211</v>
       </c>
       <c r="I40" s="73" t="s">
@@ -3671,22 +3671,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="141">
+      <c r="B41" s="80">
         <v>17.47</v>
       </c>
-      <c r="C41" s="141">
+      <c r="C41" s="80">
         <v>0</v>
       </c>
-      <c r="D41" s="141">
+      <c r="D41" s="80">
         <v>34.56</v>
       </c>
-      <c r="E41" s="142" t="s">
+      <c r="E41" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="142" t="s">
+      <c r="F41" s="81" t="s">
         <v>211</v>
       </c>
       <c r="I41" s="73" t="s">
@@ -3694,22 +3694,22 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="140" t="s">
+      <c r="A42" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="141">
+      <c r="B42" s="80">
         <v>600</v>
       </c>
-      <c r="C42" s="141">
+      <c r="C42" s="80">
         <v>367.64</v>
       </c>
-      <c r="D42" s="141">
+      <c r="D42" s="80">
         <v>3137.15</v>
       </c>
-      <c r="E42" s="143" t="s">
+      <c r="E42" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F42" s="143" t="s">
+      <c r="F42" s="82" t="s">
         <v>212</v>
       </c>
       <c r="I42" s="73" t="s">
@@ -3717,22 +3717,22 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="144" t="s">
+      <c r="A43" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="145">
+      <c r="B43" s="84">
         <v>250</v>
       </c>
-      <c r="C43" s="141">
+      <c r="C43" s="80">
         <v>113.19</v>
       </c>
-      <c r="D43" s="141">
+      <c r="D43" s="80">
         <v>821.55</v>
       </c>
-      <c r="E43" s="143" t="s">
+      <c r="E43" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F43" s="143" t="s">
+      <c r="F43" s="82" t="s">
         <v>212</v>
       </c>
       <c r="I43" s="73" t="s">
@@ -3740,22 +3740,22 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="140" t="s">
+      <c r="A44" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="141">
+      <c r="B44" s="80">
         <v>196</v>
       </c>
-      <c r="C44" s="141">
+      <c r="C44" s="80">
         <v>0</v>
       </c>
-      <c r="D44" s="141">
+      <c r="D44" s="80">
         <v>0</v>
       </c>
-      <c r="E44" s="143" t="s">
+      <c r="E44" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="F44" s="143" t="s">
+      <c r="F44" s="82" t="s">
         <v>212</v>
       </c>
       <c r="I44" s="73" t="s">
@@ -3763,418 +3763,418 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="140" t="s">
+      <c r="A45" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="141">
+      <c r="B45" s="80">
         <v>105.66</v>
       </c>
-      <c r="C45" s="141">
+      <c r="C45" s="80">
         <v>0</v>
       </c>
-      <c r="D45" s="141">
+      <c r="D45" s="80">
         <v>0</v>
       </c>
-      <c r="E45" s="143" t="s">
+      <c r="E45" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="F45" s="143" t="s">
+      <c r="F45" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="140" t="s">
+      <c r="A46" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="141">
+      <c r="B46" s="80">
         <v>106</v>
       </c>
-      <c r="C46" s="141">
+      <c r="C46" s="80">
         <v>0</v>
       </c>
-      <c r="D46" s="141">
+      <c r="D46" s="80">
         <v>10.93</v>
       </c>
-      <c r="E46" s="143" t="s">
+      <c r="E46" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="143" t="s">
+      <c r="F46" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="140" t="s">
+      <c r="A47" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="141">
+      <c r="B47" s="80">
         <v>330.5</v>
       </c>
-      <c r="C47" s="141">
+      <c r="C47" s="80">
         <v>0</v>
       </c>
-      <c r="D47" s="141">
+      <c r="D47" s="80">
         <v>178.37</v>
       </c>
-      <c r="E47" s="143" t="s">
+      <c r="E47" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="F47" s="143" t="s">
+      <c r="F47" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="141">
+      <c r="B48" s="80">
         <v>113.2</v>
       </c>
-      <c r="C48" s="141">
+      <c r="C48" s="80">
         <v>36.35</v>
       </c>
-      <c r="D48" s="141">
+      <c r="D48" s="80">
         <v>427.61</v>
       </c>
-      <c r="E48" s="143" t="s">
+      <c r="E48" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="F48" s="143" t="s">
+      <c r="F48" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="140" t="s">
+      <c r="A49" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="141">
+      <c r="B49" s="80">
         <v>52.8</v>
       </c>
-      <c r="C49" s="141">
+      <c r="C49" s="80">
         <v>29.71</v>
       </c>
-      <c r="D49" s="141">
+      <c r="D49" s="80">
         <v>398.09</v>
       </c>
-      <c r="E49" s="143" t="s">
+      <c r="E49" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="F49" s="143" t="s">
+      <c r="F49" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="140" t="s">
+      <c r="A50" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="141">
+      <c r="B50" s="80">
         <v>7598.69</v>
       </c>
-      <c r="C50" s="141">
+      <c r="C50" s="80">
         <v>245.02</v>
       </c>
-      <c r="D50" s="141">
+      <c r="D50" s="80">
         <v>11689.11</v>
       </c>
-      <c r="E50" s="142" t="s">
+      <c r="E50" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="F50" s="143" t="s">
+      <c r="F50" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="140" t="s">
+      <c r="A51" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="141">
+      <c r="B51" s="80">
         <v>1100.4100000000001</v>
       </c>
-      <c r="C51" s="141">
+      <c r="C51" s="80">
         <v>222.26</v>
       </c>
-      <c r="D51" s="141">
+      <c r="D51" s="80">
         <v>1576.22</v>
       </c>
-      <c r="E51" s="142" t="s">
+      <c r="E51" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="F51" s="143" t="s">
+      <c r="F51" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="140" t="s">
+      <c r="A52" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="141">
+      <c r="B52" s="80">
         <v>659.4</v>
       </c>
-      <c r="C52" s="146">
+      <c r="C52" s="87">
         <v>793.68799999999999</v>
       </c>
-      <c r="D52" s="147">
+      <c r="D52" s="88">
         <v>6244.51</v>
       </c>
-      <c r="E52" s="142" t="s">
+      <c r="E52" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="F52" s="143" t="s">
+      <c r="F52" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="140" t="s">
+      <c r="A53" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="141">
+      <c r="B53" s="80">
         <v>177.4</v>
       </c>
-      <c r="C53" s="146"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="142" t="s">
+      <c r="C53" s="87"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="F53" s="143" t="s">
+      <c r="F53" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="140" t="s">
+      <c r="A54" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="148">
+      <c r="B54" s="85">
         <v>2600</v>
       </c>
-      <c r="C54" s="141">
+      <c r="C54" s="80">
         <v>1843.09</v>
       </c>
-      <c r="D54" s="141">
+      <c r="D54" s="80">
         <v>16672.52</v>
       </c>
-      <c r="E54" s="143" t="s">
+      <c r="E54" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F54" s="142" t="s">
+      <c r="F54" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="140" t="s">
+      <c r="A55" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="148">
+      <c r="B55" s="85">
         <v>2000</v>
       </c>
-      <c r="C55" s="141">
+      <c r="C55" s="80">
         <v>1386.35</v>
       </c>
-      <c r="D55" s="141">
+      <c r="D55" s="80">
         <v>12785.9</v>
       </c>
-      <c r="E55" s="143" t="s">
+      <c r="E55" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F55" s="142" t="s">
+      <c r="F55" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="140" t="s">
+      <c r="A56" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="148">
+      <c r="B56" s="85">
         <v>1000</v>
       </c>
-      <c r="C56" s="141">
+      <c r="C56" s="80">
         <v>625.04999999999995</v>
       </c>
-      <c r="D56" s="141">
+      <c r="D56" s="80">
         <v>6194.2</v>
       </c>
-      <c r="E56" s="143" t="s">
+      <c r="E56" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="142" t="s">
+      <c r="F56" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="140" t="s">
+      <c r="A57" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="148">
+      <c r="B57" s="85">
         <v>1500</v>
       </c>
-      <c r="C57" s="141">
+      <c r="C57" s="80">
         <v>950.53</v>
       </c>
-      <c r="D57" s="141">
+      <c r="D57" s="80">
         <v>8132.02</v>
       </c>
-      <c r="E57" s="143" t="s">
+      <c r="E57" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F57" s="142" t="s">
+      <c r="F57" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="140" t="s">
+      <c r="A58" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="148">
+      <c r="B58" s="85">
         <v>1000</v>
       </c>
-      <c r="C58" s="141">
+      <c r="C58" s="80">
         <v>563.21</v>
       </c>
-      <c r="D58" s="141">
+      <c r="D58" s="80">
         <v>5618.45</v>
       </c>
-      <c r="E58" s="143" t="s">
+      <c r="E58" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="142" t="s">
+      <c r="F58" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="140" t="s">
+      <c r="A59" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="148">
+      <c r="B59" s="85">
         <v>1470</v>
       </c>
-      <c r="C59" s="141">
+      <c r="C59" s="80">
         <v>1047.04</v>
       </c>
-      <c r="D59" s="141">
+      <c r="D59" s="80">
         <v>9450.9699999999993</v>
       </c>
-      <c r="E59" s="143" t="s">
+      <c r="E59" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F59" s="142" t="s">
+      <c r="F59" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="140" t="s">
+      <c r="A60" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="148">
+      <c r="B60" s="85">
         <v>420</v>
       </c>
-      <c r="C60" s="141">
+      <c r="C60" s="80">
         <v>313.10000000000002</v>
       </c>
-      <c r="D60" s="141">
+      <c r="D60" s="80">
         <v>2960.96</v>
       </c>
-      <c r="E60" s="143" t="s">
+      <c r="E60" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="142" t="s">
+      <c r="F60" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="140" t="s">
+      <c r="A61" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="148">
+      <c r="B61" s="85">
         <v>500</v>
       </c>
-      <c r="C61" s="141">
+      <c r="C61" s="80">
         <v>76.290000000000006</v>
       </c>
-      <c r="D61" s="141">
+      <c r="D61" s="80">
         <v>1130.51</v>
       </c>
-      <c r="E61" s="143" t="s">
+      <c r="E61" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="F61" s="142" t="s">
+      <c r="F61" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="140" t="s">
+      <c r="A62" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="141">
+      <c r="B62" s="80">
         <v>440</v>
       </c>
-      <c r="C62" s="141">
+      <c r="C62" s="80">
         <v>251.3</v>
       </c>
-      <c r="D62" s="141">
+      <c r="D62" s="80">
         <v>2806.25</v>
       </c>
-      <c r="E62" s="142" t="s">
+      <c r="E62" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="142" t="s">
+      <c r="F62" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="140" t="s">
+      <c r="A63" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="141">
+      <c r="B63" s="80">
         <v>880</v>
       </c>
-      <c r="C63" s="141">
+      <c r="C63" s="80">
         <v>571.66999999999996</v>
       </c>
-      <c r="D63" s="141">
+      <c r="D63" s="80">
         <v>5553.95</v>
       </c>
-      <c r="E63" s="142" t="s">
+      <c r="E63" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="F63" s="142" t="s">
+      <c r="F63" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="140" t="s">
+      <c r="A64" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="141">
+      <c r="B64" s="80">
         <v>2000</v>
       </c>
-      <c r="C64" s="141">
+      <c r="C64" s="80">
         <v>12.61</v>
       </c>
-      <c r="D64" s="141">
+      <c r="D64" s="80">
         <v>7238.74</v>
       </c>
-      <c r="E64" s="142" t="s">
+      <c r="E64" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="F64" s="142" t="s">
+      <c r="F64" s="81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="140" t="s">
+      <c r="A65" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="141">
+      <c r="B65" s="80">
         <v>10</v>
       </c>
-      <c r="C65" s="141">
+      <c r="C65" s="80">
         <v>0</v>
       </c>
-      <c r="D65" s="141">
+      <c r="D65" s="80">
         <v>1.24</v>
       </c>
-      <c r="E65" s="149" t="s">
+      <c r="E65" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="149" t="s">
+      <c r="F65" s="86" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4270,28 +4270,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="106" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="107"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
@@ -4626,11 +4626,11 @@
       <c r="B17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="99">
         <v>2221.9</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="110"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="13">
         <v>137.09</v>
       </c>
@@ -4639,15 +4639,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
     </row>
     <row r="19" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
@@ -4746,11 +4746,11 @@
       <c r="B23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="105">
         <v>4770</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
       <c r="F23" s="22">
         <v>2410.58</v>
       </c>
@@ -4759,15 +4759,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
     </row>
     <row r="25" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
@@ -4889,11 +4889,11 @@
       <c r="B30" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="85">
+      <c r="C30" s="105">
         <v>515.88</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
       <c r="F30" s="22">
         <v>157.69</v>
       </c>
@@ -4902,15 +4902,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
@@ -4940,11 +4940,11 @@
       <c r="B33" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="85">
+      <c r="C33" s="105">
         <v>17.47</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
       <c r="F33" s="22">
         <v>0</v>
       </c>
@@ -4953,15 +4953,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
     </row>
     <row r="35" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
@@ -5012,22 +5012,22 @@
     <row r="37" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="91"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="123"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
     </row>
     <row r="38" spans="1:7" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
     </row>
     <row r="39" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32">
@@ -5168,15 +5168,15 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
     </row>
     <row r="46" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32">
@@ -5240,10 +5240,10 @@
       <c r="E48" s="36">
         <v>659.4</v>
       </c>
-      <c r="F48" s="75">
+      <c r="F48" s="110">
         <v>793.68799999999999</v>
       </c>
-      <c r="G48" s="77">
+      <c r="G48" s="112">
         <v>6244.51</v>
       </c>
     </row>
@@ -5263,19 +5263,19 @@
       <c r="E49" s="36">
         <v>177.4</v>
       </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="78"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="113"/>
     </row>
     <row r="50" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="79">
+      <c r="C50" s="114">
         <v>11290.06</v>
       </c>
-      <c r="D50" s="80"/>
-      <c r="E50" s="81"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="42">
         <v>1807.85</v>
       </c>
@@ -5288,11 +5288,11 @@
       <c r="B51" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="82">
+      <c r="C51" s="117">
         <v>18815.310000000001</v>
       </c>
-      <c r="D51" s="83"/>
-      <c r="E51" s="84"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="42">
         <v>4513.21</v>
       </c>
@@ -5302,16 +5302,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:G31"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="C50:E50"/>
@@ -5321,6 +5311,16 @@
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5363,24 +5363,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="107"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
@@ -5389,13 +5389,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44">
@@ -5495,15 +5495,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="115"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46">
@@ -5671,11 +5671,11 @@
       <c r="B9" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="116">
+      <c r="C9" s="130">
         <v>6378</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
       <c r="F9" s="54">
         <v>1264.08</v>
       </c>
@@ -5688,11 +5688,11 @@
       <c r="B10" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="116">
+      <c r="C10" s="130">
         <v>6378</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
       <c r="F10" s="54">
         <v>1264.08</v>
       </c>
@@ -5751,28 +5751,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="106" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="107"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
@@ -5907,15 +5907,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
     </row>
     <row r="10" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
@@ -5991,11 +5991,11 @@
       <c r="B13" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="144">
         <v>10490</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="146"/>
       <c r="F13" s="65">
         <v>6804.65</v>
       </c>
@@ -6004,15 +6004,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
     </row>
     <row r="15" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
@@ -6088,11 +6088,11 @@
       <c r="B18" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="105">
         <v>3320</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
       <c r="F18" s="22">
         <v>835.57</v>
       </c>
@@ -6101,15 +6101,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="132"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="149"/>
     </row>
     <row r="20" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
@@ -6139,11 +6139,11 @@
       <c r="B21" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="114">
         <v>10</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="42">
         <v>0</v>
       </c>
@@ -6156,11 +6156,11 @@
       <c r="B22" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="119">
+      <c r="C22" s="136">
         <v>13820</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
       <c r="F22" s="22">
         <v>7640.22</v>
       </c>
@@ -6173,11 +6173,11 @@
       <c r="B23" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="122">
+      <c r="C23" s="139">
         <v>78357.14</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
       <c r="F23" s="71">
         <v>25250.85</v>
       </c>
@@ -6187,11 +6187,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:G3"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
@@ -6200,6 +6195,11 @@
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
